--- a/documents/lecture_00/1125_Schedule_2021.xlsx
+++ b/documents/lecture_00/1125_Schedule_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo1125Fall21/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C7DD5-FE60-4848-A2D7-068830F7C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B10E6-B619-2A49-95A7-CB64425748EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="1380" windowWidth="27940" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="27940" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>SES #</t>
   </si>
@@ -120,33 +120,15 @@
     <t>HW08: Project Deliverable 02</t>
   </si>
   <si>
-    <t>No HW this week</t>
-  </si>
-  <si>
     <t>HW07: Project Deliverable 01</t>
   </si>
   <si>
-    <t>HW06: ML &amp; Project Proposal</t>
-  </si>
-  <si>
-    <t>HW06 DUE</t>
-  </si>
-  <si>
     <t>HW00: Install VSCode and Git</t>
   </si>
   <si>
     <t>HW01- setup git website</t>
   </si>
   <si>
-    <t>HW2 DUE - HW03: Touching the Cloud</t>
-  </si>
-  <si>
-    <t>HW4 Due - HW5 Out</t>
-  </si>
-  <si>
-    <t>HW05 DUE</t>
-  </si>
-  <si>
     <t>Practice Presentations</t>
   </si>
   <si>
@@ -195,9 +177,6 @@
     <t>Open Source 1 - Students Demo an App</t>
   </si>
   <si>
-    <t>Open Source 2 - Students Demo an App</t>
-  </si>
-  <si>
     <t>Machine Learning 2</t>
   </si>
   <si>
@@ -226,6 +205,18 @@
   </si>
   <si>
     <t>Final Presentations and Debrief</t>
+  </si>
+  <si>
+    <t>HW2 DUE - HW03 Case Study Prep</t>
+  </si>
+  <si>
+    <t>HW 4 - Demo App Prep</t>
+  </si>
+  <si>
+    <t>HW4 DUE - HW5 Demo App</t>
+  </si>
+  <si>
+    <t>HW6 Video Making</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1704,7 @@
     </row>
     <row r="3" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -1772,7 +1763,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1815,10 +1806,10 @@
         <v>44453</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7"/>
@@ -1861,7 +1852,7 @@
         <v>44455</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="24"/>
@@ -1905,10 +1896,10 @@
         <v>44460</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -1924,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="16">
-        <v>44089</v>
+        <v>44462</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1971,10 +1962,10 @@
         <v>44467</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15"/>
@@ -2041,7 +2032,7 @@
         <v>44469</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2072,7 +2063,7 @@
     </row>
     <row r="18" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -2124,10 +2115,10 @@
         <v>44474</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -2146,10 +2137,10 @@
         <v>44476</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -2168,10 +2159,10 @@
         <v>44481</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -2190,11 +2181,9 @@
         <v>44483</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2212,10 +2201,10 @@
         <v>44488</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E28" s="30"/>
     </row>
@@ -2234,11 +2223,9 @@
         <v>44490</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -2256,10 +2243,10 @@
         <v>44495</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -2278,14 +2265,14 @@
         <v>44497</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2347,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="28"/>
     </row>
@@ -2368,9 +2355,7 @@
       <c r="C40" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -2390,7 +2375,9 @@
       <c r="C42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -2408,7 +2395,7 @@
         <v>44511</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -2430,7 +2417,7 @@
         <v>18</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -2451,7 +2438,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E48" s="19"/>
     </row>
@@ -2464,7 +2451,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B50" s="15">
         <v>44523</v>
@@ -2483,13 +2470,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B52" s="16">
         <v>44525</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2499,13 +2486,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B54" s="16">
         <v>44530</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2515,13 +2502,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B56" s="15">
         <v>44532</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
